--- a/Config/ExcelData/ItemConfig.xlsx
+++ b/Config/ExcelData/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20580" windowHeight="8355"/>
+    <workbookView windowWidth="22320" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -87,7 +87,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>编号</t>
+    <t>I</t>
   </si>
   <si>
     <t>图标</t>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Assets/Texture/Survival/hammer.png</t>
+  </si>
+  <si>
+    <t>Assets/Texture/Clue/suitcase.png</t>
+  </si>
+  <si>
+    <t>Assets/Texture/Clue/tool-box.png</t>
   </si>
 </sst>
 </file>
@@ -280,12 +286,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1096,13 +1102,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -1245,6 +1251,40 @@
       </c>
       <c r="E8">
         <v>50010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>50015</v>
+      </c>
+      <c r="E9">
+        <v>50013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>50016</v>
+      </c>
+      <c r="E10">
+        <v>50014</v>
       </c>
     </row>
   </sheetData>

--- a/Config/ExcelData/ItemConfig.xlsx
+++ b/Config/ExcelData/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="6945"/>
+    <workbookView windowWidth="20145" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,8 @@
 EItemType对应物品枚举
 1：食物
 2：线索
-3：工具</t>
+3：工具
+4：未鉴定线索</t>
         </r>
       </text>
     </comment>
@@ -286,12 +287,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1105,7 +1106,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1210,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>50005</v>
